--- a/biology/Zoologie/Anabate_à_cou_roux/Anabate_à_cou_roux.xlsx
+++ b/biology/Zoologie/Anabate_à_cou_roux/Anabate_à_cou_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_cou_roux</t>
+          <t>Anabate_à_cou_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syndactyla ruficollis
-L'Anabate à cou roux[1] (Syndactyla ruficollis) est une espèce d'oiseaux de la famille des Furnariidae vivant en Amérique du Sud.
+L'Anabate à cou roux (Syndactyla ruficollis) est une espèce d'oiseaux de la famille des Furnariidae vivant en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_cou_roux</t>
+          <t>Anabate_à_cou_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce localisée que l'on trouve sur les pentes autour des Andes occidentales dans le sud-Ouest de l'Equateur et dans le nord-Ouest du Pérou. Autrefois on pouvait le trouver sur d'autres sites comme la réserve naturelle d'El Tundo et les parcelles forestières autour de Celica. La population Equatorienne a considérablement diminué au cours des dernières décennies à cause de la destruction de son habitat dans une grande partie de son aire de répartition qui était déjà restreinte.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_cou_roux</t>
+          <t>Anabate_à_cou_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce en déclin et vulnérable qui est de plus en plus localisée à cause de la destruction de son habitat, il reste aujourd'hui entre 1500 et 7000 oiseaux adultes et ses tendances sont en baisse.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_cou_roux</t>
+          <t>Anabate_à_cou_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 avril 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 avril 2023) :
 Syndactyla ruficollis celicae
 Syndactyla ruficollis ruficollis</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_cou_roux</t>
+          <t>Anabate_à_cou_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Syndactyla ruficollis (Taczanowski, 1884)[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate à cou roux[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Syndactyla ruficollis (Taczanowski, 1884).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate à cou roux.
 </t>
         </is>
       </c>
